--- a/CreateScripts/Anthony/Excel/Employee.xlsx
+++ b/CreateScripts/Anthony/Excel/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony Vu\Desktop\Uni. Stuff\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19406D57-A28D-4D0A-92BA-E54FC5B7A9CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F03339-5DF6-45AA-B9A1-B9CC9EFA9342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>EMP_ID</t>
   </si>
@@ -60,22 +60,67 @@
     <t>EMP_JOB_FUNC</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>21765 Wood Dr.11/12/2016</t>
-  </si>
-  <si>
     <t>Painter</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Welder</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Melvin</t>
+  </si>
+  <si>
+    <t>21765 Wood Dr.</t>
+  </si>
+  <si>
+    <t>1756 Grandhall St.</t>
+  </si>
+  <si>
+    <t>18615 Main Rd.</t>
+  </si>
+  <si>
+    <t>91856 Cross River Dr.</t>
+  </si>
+  <si>
+    <t>7451 Oak Seed Dr.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo </t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Ernesto</t>
+  </si>
+  <si>
+    <t>Electrical Technician</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Felis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,8 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,17 +435,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
@@ -443,19 +491,25 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42559</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>10.6</v>
       </c>
       <c r="H2">
@@ -468,6 +522,146 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>39860</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3">
+        <v>11.15</v>
+      </c>
+      <c r="H3">
+        <v>8326771897</v>
+      </c>
+      <c r="I3">
+        <v>165864988</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42202</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H4">
+        <v>7134896523</v>
+      </c>
+      <c r="I4">
+        <v>745160326</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>39772</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>8327897418</v>
+      </c>
+      <c r="I5">
+        <v>894653457</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44047</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="H6">
+        <v>7135698523</v>
+      </c>
+      <c r="I6">
+        <v>984156189</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
         <v>14</v>
       </c>
     </row>
